--- a/AAII_Financials/Quarterly/NXMR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXMR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>NXMR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2652,11 +2652,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -2826,11 +2826,11 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
@@ -2868,11 +2868,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -2955,11 +2955,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3113,11 +3113,11 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3142,11 +3142,11 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -3171,11 +3171,11 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/NXMR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXMR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>NXMR</t>
   </si>
@@ -2652,14 +2652,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -2823,8 +2823,8 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -2856,26 +2856,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -2955,14 +2955,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3113,14 +3113,14 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3142,14 +3142,14 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -3168,8 +3168,8 @@
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
